--- a/RMD/新冠早报测试/input/insight.xlsx
+++ b/RMD/新冠早报测试/input/insight.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqimin/Desktop/新冠早报测试/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqimin/Desktop/申请文件/CoronaDailyReport/RMD/新冠早报测试/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1482F61B-4F1A-7748-99CA-904FF1FDD438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB68D8D7-78BC-CE4A-8CC4-98B7F11C9332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35800" yWindow="1700" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37160" yWindow="5640" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - test" sheetId="1" r:id="rId1"/>
@@ -49,21 +49,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    $\quad$截至北京时间4月8日早6:30， 美国累计确诊病例数已达到387,547例，共 12,291
-死亡病例。从州疫情分布图（图4，图5）来看，东西海岸，五大湖及南部地区疫情严重，中部地区疫情呈快速蔓延趋势。
-    $\quad$从表4来看，纽约州(NY)、新泽西州(NJ)和密歇根州(MI)仍为美国疫情最严重的三个州。纽约州粗发病率持续位居全美第一位，高达714/10万人，检测率同为全美最高，达1,748/10万人，而阳性率为全国平均阳性率的2.15倍（41%），提示该州病人数量巨大，医疗资源持续面临巨大压力。
-    $\quad$值得注意的是，佐治亚州(GA)累计确诊病例首次进入全美前十，取代华盛顿州(WA)。在累计检测人数较少的情况下，佐治亚州的阳性率为26%，超过美国平均阳性率(19%)，提示该州疫情不容乐观。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    $\quad$从表5新增确诊人数来看，纽约州、新泽西州的新增确诊数仍高居前二，宾夕法尼亚州，佐治亚州，路易斯安那州、和佛罗里达州的日新增确诊病例数均超过1,000人。值得注意的是，佐治亚州的日新增确诊首次进入前五，超1,500例；印第安纳州和佛吉尼亚州日新增确诊也首次进入全美前十。鉴于这些州的人均检测率均低于全美平均值（印第安纳州：427/10万人；佛吉尼亚州：336/10万人），显示这些地区疫情存在恶化的风险。
+    <t xml:space="preserve">    $\quad$从表5新增确诊人数来看，纽约州、新泽西州的新增确诊数仍高居前二，宾夕法尼亚州，佐治亚州，路易斯安那州、和佛罗里达州的日新增确诊病例数均超过1,000人。值得注意的是，佐治亚州的日新增确诊首次进入前五，超1,500例；印第安纳州和佛吉尼亚州日新增确诊也首次进入全美前十。鉴于这些州的人均检测率均低于全美平均值（印第安纳州：427/10万人；佛吉尼亚州：336/10万人），显示这些地区疫情存在恶化的风险。\
     $\quad$从表6来看，美国累计死亡病例已突破一万二千例。纽约州的病死率已上升至4%，提示纽约州的医疗系统已严重超过负荷。同时，纽约州日新增确诊病例已连续4日下降（图5），可能与居家隔离措施与扩大检测规模有关。值得注意的是，佐治亚州的病死率上升迅速（从4月7日3.1%到4月8日3.7%），提示该地区医疗系统正面临巨大挑战。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    $\quad$表2和图2显示，美国新增病例数仍居全球首位，已连续八天日新增病例数超过两万人。西班牙与意大利日新增病例数连续下降，意大利昨日新增病例首次跌出日新增国家前五。值得注意的是，法国的日新增病例较昨日翻倍，已突破一万例。同时，土耳其单日确诊病例连续五天增加，提示该地区疫情发展迅速。巴西日新增病例首次进入前十，表明疫情在南美洲有蔓延趋势。
+    <t xml:space="preserve">    $\quad$表2和图2显示，美国新增病例数仍居全球首位，已连续八天日新增病例数超过两万人。西班牙与意大利日新增病例数连续下降，意大利昨日新增病例首次跌出日新增国家前五。值得注意的是，法国的日新增病例较昨日翻倍，已突破一万例。同时，土耳其单日确诊病例连续五天增加，提示该地区疫情发展迅速。巴西日新增病例首次进入前十，表明疫情在南美洲有蔓延趋势。 \
     $\quad$表3和图3显示，美国的日新增死亡病例再登新高（1,508例），从4月4日至今一直为前十位国家中首位，疫情发展不容乐观。法国的日新增死亡病例数迅速上升，昨日新增死亡病例数仅次于美国，高达1,417例，病死率持续上升，提示该国医疗系统正面临巨大压力。意大利和西班牙的日新增死亡病例数呈下降趋势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    $\quad$截至北京时间4月8日早6:30， 美国累计确诊病例数已达到387,547例，共 12,291 死亡病例。从州疫情分布图（图4，图5）来看，东西海岸，五大湖及南部地区疫情严重，中部地区疫情呈快速蔓延趋势。\
+    $\quad$从表4来看，纽约州(NY)、新泽西州(NJ)和密歇根州(MI)仍为美国疫情最严重的三个州。纽约州粗发病率持续位居全美第一位，高达714/10万人，检测率同为全美最高，达1,748/10万人，而阳性率为全国平均阳性率的2.15倍（41%），提示该州病人数量巨大，医疗资源持续面临巨大压力。\
+    $\quad$值得注意的是，佐治亚州(GA)累计确诊病例首次进入全美前十，取代华盛顿州(WA)。在累计检测人数较少的情况下，佐治亚州的阳性率为26%，超过美国平均阳性率(19%)，提示该州疫情不容乐观。
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +378,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -458,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -490,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -522,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>

--- a/RMD/新冠早报测试/input/insight.xlsx
+++ b/RMD/新冠早报测试/input/insight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqimin/Desktop/申请文件/CoronaDailyReport/RMD/新冠早报测试/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidazhang/Documents/Git/DailyReport/RMD/新冠早报测试/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB68D8D7-78BC-CE4A-8CC4-98B7F11C9332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BDF968-17EE-C946-AE2C-5ADFE41344CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37160" yWindow="5640" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - test" sheetId="1" r:id="rId1"/>
@@ -46,24 +46,20 @@
   </si>
   <si>
     <t xml:space="preserve">   $\quad$截至北京时间4月8日早6:30，全球累计确诊病例已经达到1,414,738例，累计死亡81,259 例。在180多个出现确诊病例的国家或地区中，有17个国家累计确诊超万人。目前，主要病例集中在亚洲、欧洲及北美洲。发展中国家和地区的疫情发展也不可忽视：拉丁美洲国家的确诊病例数快速增长，非洲国家累计确诊病例已逾一万例。表1显示，法国确诊病例首次超过德国成为欧洲第三，中国确诊病例数已下降至第六位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    $\quad$从表5新增确诊人数来看，纽约州、新泽西州的新增确诊数仍高居前二，宾夕法尼亚州，佐治亚州，路易斯安那州、和佛罗里达州的日新增确诊病例数均超过1,000人。值得注意的是，佐治亚州的日新增确诊首次进入前五，超1,500例；印第安纳州和佛吉尼亚州日新增确诊也首次进入全美前十。鉴于这些州的人均检测率均低于全美平均值（印第安纳州：427/10万人；佛吉尼亚州：336/10万人），显示这些地区疫情存在恶化的风险。\
-    $\quad$从表6来看，美国累计死亡病例已突破一万二千例。纽约州的病死率已上升至4%，提示纽约州的医疗系统已严重超过负荷。同时，纽约州日新增确诊病例已连续4日下降（图5），可能与居家隔离措施与扩大检测规模有关。值得注意的是，佐治亚州的病死率上升迅速（从4月7日3.1%到4月8日3.7%），提示该地区医疗系统正面临巨大挑战。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>$\quad$表2和图2显示，美国新增病例数仍居全球首位，已连续八天日新增病例数超过两万人。西班牙与意大利日新增病例数连续下降，意大利昨日新增病例首次跌出日新增国家前五。值得注意的是，法国的日新增病例较昨日翻倍，已突破一万例。同时，土耳其单日确诊病例连续五天增加，提示该地区疫情发展迅速。巴西日新增病例首次进入前十，表明疫情在南美洲有蔓延趋势。 
+$\quad$表3和图3显示，美国的日新增死亡病例再登新高（1,508例），从4月4日至今一直为前十位国家中首位，疫情发展不容乐观。法国的日新增死亡病例数迅速上升，昨日新增死亡病例数仅次于美国，高达1,417例，病死率持续上升，提示该国医疗系统正面临巨大压力。意大利和西班牙的日新增死亡病例数呈下降趋势。</t>
   </si>
   <si>
-    <t xml:space="preserve">    $\quad$表2和图2显示，美国新增病例数仍居全球首位，已连续八天日新增病例数超过两万人。西班牙与意大利日新增病例数连续下降，意大利昨日新增病例首次跌出日新增国家前五。值得注意的是，法国的日新增病例较昨日翻倍，已突破一万例。同时，土耳其单日确诊病例连续五天增加，提示该地区疫情发展迅速。巴西日新增病例首次进入前十，表明疫情在南美洲有蔓延趋势。 \
-    $\quad$表3和图3显示，美国的日新增死亡病例再登新高（1,508例），从4月4日至今一直为前十位国家中首位，疫情发展不容乐观。法国的日新增死亡病例数迅速上升，昨日新增死亡病例数仅次于美国，高达1,417例，病死率持续上升，提示该国医疗系统正面临巨大压力。意大利和西班牙的日新增死亡病例数呈下降趋势。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">$\quad$截至北京时间4月8日早6:30， 美国累计确诊病例数已达到387,547例，共 12,291 死亡病例。从州疫情分布图（图4，图5）来看，东西海岸，五大湖及南部地区疫情严重，中部地区疫情呈快速蔓延趋势。
+$\quad$从表4来看，纽约州(NY)、新泽西州(NJ)和密歇根州(MI)仍为美国疫情最严重的三个州。纽约州粗发病率持续位居全美第一位，高达714/10万人，检测率同为全美最高，达1,748/10万人，而阳性率为全国平均阳性率的2.15倍（41%），提示该州病人数量巨大，医疗资源持续面临巨大压力。
+$\quad$值得注意的是，佐治亚州(GA)累计确诊病例首次进入全美前十，取代华盛顿州(WA)。在累计检测人数较少的情况下，佐治亚州的阳性率为26%，超过美国平均阳性率(19%)，提示该州疫情不容乐观。
+</t>
   </si>
   <si>
-    <t xml:space="preserve">    $\quad$截至北京时间4月8日早6:30， 美国累计确诊病例数已达到387,547例，共 12,291 死亡病例。从州疫情分布图（图4，图5）来看，东西海岸，五大湖及南部地区疫情严重，中部地区疫情呈快速蔓延趋势。\
-    $\quad$从表4来看，纽约州(NY)、新泽西州(NJ)和密歇根州(MI)仍为美国疫情最严重的三个州。纽约州粗发病率持续位居全美第一位，高达714/10万人，检测率同为全美最高，达1,748/10万人，而阳性率为全国平均阳性率的2.15倍（41%），提示该州病人数量巨大，医疗资源持续面临巨大压力。\
-    $\quad$值得注意的是，佐治亚州(GA)累计确诊病例首次进入全美前十，取代华盛顿州(WA)。在累计检测人数较少的情况下，佐治亚州的阳性率为26%，超过美国平均阳性率(19%)，提示该州疫情不容乐观。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>$\quad$从表5新增确诊人数来看，纽约州、新泽西州的新增确诊数仍高居前二，宾夕法尼亚州，佐治亚州，路易斯安那州、和佛罗里达州的日新增确诊病例数均超过1,000人。值得注意的是，佐治亚州的日新增确诊首次进入前五，超1,500例；印第安纳州和佛吉尼亚州日新增确诊也首次进入全美前十。鉴于这些州的人均检测率均低于全美平均值（印第安纳州：427/10万人；佛吉尼亚州：336/10万人），显示这些地区疫情存在恶化的风险。
+$\quad$从表6来看，美国累计死亡病例已突破一万二千例。纽约州的病死率已上升至4%，提示纽约州的医疗系统已严重超过负荷。同时，纽约州日新增确诊病例已连续4日下降（图5），可能与居家隔离措施与扩大检测规模有关。值得注意的是，佐治亚州的病死率上升迅速（从4月7日3.1%到4月8日3.7%），提示该地区医疗系统正面临巨大挑战。</t>
   </si>
 </sst>
 </file>
@@ -159,7 +155,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,7 +374,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -457,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -489,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -521,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
